--- a/biology/Botanique/Callicarpa_japonica/Callicarpa_japonica.xlsx
+++ b/biology/Botanique/Callicarpa_japonica/Callicarpa_japonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicarpa japonica est une espèce de plantes appelée callicarpe, de la famille des Lamiaceae, originaire de Chine, Corée et Japon.
 Ce sont des arbustes ramassés portant des fruits violacés, dont les feuilles sont colorées en automne, utilisés comme plantes ornementales. Les fruits ne sont pas comestibles, mais les feuilles peuvent être utilisées en tisane.
@@ -513,9 +525,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 sept. 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 sept. 2011) :
 Callicarpa japonica var. japonica, dont les pédoncules ont une longueur égale ou supérieure à celle des pétioles ;
 Callicarpa japonica var. luxurians Rehder, dont les pédoncules ont une longueur inférieure à celle des pétioles.</t>
         </is>
